--- a/Nghiệp vụ xuất hàng PC đên PC/Chi tiết nghiệp vụ xuất hàng PC.xlsx
+++ b/Nghiệp vụ xuất hàng PC đên PC/Chi tiết nghiệp vụ xuất hàng PC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tạo chỉ thị xuất(SPOT00251)" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
   <si>
     <t>Tạo Chỉ Thị Xuất</t>
   </si>
@@ -373,13 +373,156 @@
   </si>
   <si>
     <t>Chỉ thiếu mục</t>
+  </si>
+  <si>
+    <t>Xuât Số PL</t>
+  </si>
+  <si>
+    <t>Chức năng</t>
+  </si>
+  <si>
+    <t>Kiểm tra điều kiện</t>
+  </si>
+  <si>
+    <t>Giử</t>
+  </si>
+  <si>
+    <t>Xuất số PL theo điều kiện</t>
+  </si>
+  <si>
+    <t>Pick Hàng (HT)</t>
+  </si>
+  <si>
+    <t>1. Quét Số PL</t>
+  </si>
+  <si>
+    <t>Nếu tồn tại Chuyển đến màn hình Quét vị trí</t>
+  </si>
+  <si>
+    <t>2. Nhấn L để quay lại màn hình trước đó</t>
+  </si>
+  <si>
+    <t>1. Quet Vị trí</t>
+  </si>
+  <si>
+    <t>Nếu tồn tại thì chuyển đến màn hình quét sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Nhấn F1. </t>
+  </si>
+  <si>
+    <t>4. Nhấn F2</t>
+  </si>
+  <si>
+    <t>5. Nhân R kiểm tra vị trí trên ô input nếu tồn tại chuyển đên
+màn hình quet sản phẩm</t>
+  </si>
+  <si>
+    <t>Nhập  1 =&gt; Nhấn R  để chuyển vào màn hình Pick hàng</t>
+  </si>
+  <si>
+    <t>Nhấn L để quay lại màn hình trước đó</t>
+  </si>
+  <si>
+    <t>1. Quét Mã sản phẩm</t>
+  </si>
+  <si>
+    <t>Nếu không lỗi chuyển qua màn hình nhập lót. Thay đổi CLSP</t>
+  </si>
+  <si>
+    <t>1. Nhấn R để chuyển đến màn hình quét sản phẩm tiếp theo</t>
+  </si>
+  <si>
+    <t>3. Nhấn F1 để thay đổi CLSP</t>
+  </si>
+  <si>
+    <t>4. Nhấn R để kiểm tra Input</t>
+  </si>
+  <si>
+    <t>2. Nhấn L để Quay lại màn hình trước đó</t>
+  </si>
+  <si>
+    <t>1. Quét xong. nếu còn sản phẩm thì chuyển về màn hình quét Mã sản phẩm tiếp theo.
+Nếu hết sản phẩm chuyển về màn hình quét số PL</t>
+  </si>
+  <si>
+    <t>2. Nhấn L để quay về màn hình trước đó</t>
+  </si>
+  <si>
+    <t>3. Nhấn F1</t>
+  </si>
+  <si>
+    <t>5. Nhấn R. kiểm tra input</t>
+  </si>
+  <si>
+    <t>Kiểm Hàng (Ht)</t>
+  </si>
+  <si>
+    <t>1. Nhập 2, Nhấn R để đến màn hình kiểm hàng</t>
+  </si>
+  <si>
+    <t>2. Nhấn L  Quay lại màn hình trước đó</t>
+  </si>
+  <si>
+    <t>1. Quet Số PL</t>
+  </si>
+  <si>
+    <t>Nếu tồn tại =&gt; Tiếp tục Quét Số OD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Quét số OD </t>
+  </si>
+  <si>
+    <t>Nếu tồn tại chuyển đến màn hình Quét Mã sản phẩm</t>
+  </si>
+  <si>
+    <t>3. Nhấn R để kiểm tra input</t>
+  </si>
+  <si>
+    <t>4. Nhấn L để quay lại màn hình trước đó</t>
+  </si>
+  <si>
+    <t>3. Nhấn F1 để xem danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>4. Nhấn R để chuyển đển màn hình tiếp theo</t>
+  </si>
+  <si>
+    <t>1. Nhập số Box . Nhấn R để chuyên đên màn hình tiếp theo</t>
+  </si>
+  <si>
+    <t>1. Chon độ lớn của Box. Nhấn R để hoàn thành việc Kiểm hàng</t>
+  </si>
+  <si>
+    <t>3. Nhấn F1, F2 để chuyển trang</t>
+  </si>
+  <si>
+    <t>Hoàn Thành Xuất Hàng PC</t>
+  </si>
+  <si>
+    <t>Chưc Năng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm </t>
+  </si>
+  <si>
+    <t>Làm Mới</t>
+  </si>
+  <si>
+    <t>Hoàn Thành Xuất Hàng</t>
+  </si>
+  <si>
+    <t>Xuất CSV</t>
+  </si>
+  <si>
+    <t>Xây dựng lại thành tích</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +546,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -469,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -483,15 +634,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7949,6 +8112,2133 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="476250"/>
+          <a:ext cx="10058400" cy="7277958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>92850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>111900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>397650</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>64266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="92850" y="7836675"/>
+          <a:ext cx="10058400" cy="6238866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="1876425"/>
+          <a:ext cx="2133600" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Nhập</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Số</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> OD </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3562350" y="2209800"/>
+          <a:ext cx="1657350" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="7067550"/>
+          <a:ext cx="352425" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="7058025"/>
+          <a:ext cx="352425" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="7029450"/>
+          <a:ext cx="352425" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239250" y="13315950"/>
+          <a:ext cx="352425" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="1885950"/>
+          <a:ext cx="2133600" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Danh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Mục Nhận / Thanh Toán</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7153275" y="2219325"/>
+          <a:ext cx="1657350" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267075" y="7905750"/>
+          <a:ext cx="2133600" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Tổng chọn </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4219575" y="8239125"/>
+          <a:ext cx="114300" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="7896225"/>
+          <a:ext cx="2133600" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Chọn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> đơn hàng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6677025" y="8229600"/>
+          <a:ext cx="114300" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276548</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>181860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009650" y="1371600"/>
+          <a:ext cx="2314898" cy="6344535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>597675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>378910</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>84208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7979550" y="1483500"/>
+          <a:ext cx="2219635" cy="6325483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>595275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>366983</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>24646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14387475" y="1509675"/>
+          <a:ext cx="2210108" cy="6239746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>21375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>135675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>450315</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>155605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20662050" y="1573950"/>
+          <a:ext cx="2257740" cy="6306430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>28500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>438387</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>10334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26669925" y="1590600"/>
+          <a:ext cx="2238687" cy="6335009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>607125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>73725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>388360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>65076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33287400" y="1702500"/>
+          <a:ext cx="2219635" cy="6277851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Right Arrow 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3714749"/>
+          <a:ext cx="4752975" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Right Arrow 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="3743326"/>
+          <a:ext cx="4200525" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Right Arrow 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16630650" y="3724276"/>
+          <a:ext cx="3857625" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Right Arrow 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22955250" y="3771901"/>
+          <a:ext cx="3724275" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Right Arrow 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29232225" y="3886201"/>
+          <a:ext cx="4086225" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600379</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>124698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="638175"/>
+          <a:ext cx="2181529" cy="6258798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>226200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>588456</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>131818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12275325" y="683400"/>
+          <a:ext cx="2191056" cy="6220693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>300000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>595571</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>167511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12768225" y="3433725"/>
+          <a:ext cx="2124371" cy="6173061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>259500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>183300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>40735</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18757050" y="669075"/>
+          <a:ext cx="2219635" cy="6249272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>57075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>18975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>409804</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>162721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25041150" y="695250"/>
+          <a:ext cx="2181529" cy="6239746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>226125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>102623</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>169860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="226125" y="597600"/>
+          <a:ext cx="2314898" cy="6344535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Right Arrow 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="3009900"/>
+          <a:ext cx="3819525" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Right Arrow 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410575" y="3000375"/>
+          <a:ext cx="3819525" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Right Arrow 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14506575" y="3009900"/>
+          <a:ext cx="3819525" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Right Arrow 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20678775" y="3048000"/>
+          <a:ext cx="3819525" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317582</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="514350"/>
+          <a:ext cx="9356807" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="2447925"/>
+          <a:ext cx="352425" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="2447925"/>
+          <a:ext cx="352425" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="7429500"/>
+          <a:ext cx="352425" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219950" y="7458075"/>
+          <a:ext cx="352425" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="7467600"/>
+          <a:ext cx="352425" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8223,7 +10513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S151"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
@@ -8235,16 +10525,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="3" spans="3:18" x14ac:dyDescent="0.25">
       <c r="Q3" s="2" t="s">
@@ -9172,7 +11462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:T17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
@@ -9183,49 +11473,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="9"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="S4" s="9">
+      <c r="S4" s="7">
         <v>1</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="S5" s="9">
+      <c r="S5" s="7">
         <v>2</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="S6" s="9">
+      <c r="S6" s="7">
         <v>3</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="S7" s="9">
+      <c r="S7" s="7">
         <v>4</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9305,7 +11595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
@@ -9326,32 +11616,32 @@
       <c r="H1" s="10"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <v>1</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="P7" s="9">
+      <c r="P7" s="7">
         <v>2</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="P8" s="9">
+      <c r="P8" s="7">
         <v>3</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -9468,50 +11758,367 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D1:S43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="18" max="18" width="12.5703125" customWidth="1"/>
+    <col min="19" max="19" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="39" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R40" s="7">
+        <v>1</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R41" s="7">
+        <v>2</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R42" s="7">
+        <v>3</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R43" s="7">
+        <v>4</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:AX15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
+    <col min="26" max="26" width="29.5703125" customWidth="1"/>
+    <col min="34" max="34" width="30.7109375" customWidth="1"/>
+    <col min="35" max="35" width="9.85546875" customWidth="1"/>
+    <col min="42" max="42" width="30.28515625" customWidth="1"/>
+    <col min="50" max="50" width="64.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:50" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="10" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="Z10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="3:50" ht="45" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX11" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="3:50" ht="45" x14ac:dyDescent="0.25">
+      <c r="Z15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX15" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:AK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="21" max="21" width="26.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
+    <col min="30" max="30" width="33.28515625" customWidth="1"/>
+    <col min="37" max="37" width="33.85546875" customWidth="1"/>
+    <col min="44" max="44" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:37" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="5" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" t="s">
+        <v>145</v>
+      </c>
+      <c r="U6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" t="s">
+        <v>146</v>
+      </c>
+      <c r="U7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>147</v>
+      </c>
+      <c r="U8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Q7" s="4">
+        <v>3</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="4">
+        <v>4</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="4">
+        <v>5</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>